--- a/ScrimList.xlsx
+++ b/ScrimList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qstio\Desktop\Code\LOL_ScrimList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qstio\Downloads\LOL_ScrimList-main\LOL_ScrimList-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9FAA9-7A7A-47F1-9936-8F13C3E24736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D86FB0-0A6F-41C4-9E96-B9AA799263F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1410" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>SKT T1 TOR</t>
   </si>
   <si>
-    <t>문도박사</t>
+    <t>문도박사22</t>
   </si>
   <si>
     <t>GenG 상어</t>
@@ -463,50 +463,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -823,38 +823,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="26" customWidth="1"/>
-    <col min="3" max="3" width="6" style="26" customWidth="1"/>
-    <col min="9" max="9" width="6" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6" style="28" customWidth="1"/>
+    <col min="9" max="9" width="6" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="20"/>
@@ -862,7 +862,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="20"/>
@@ -872,36 +872,36 @@
       <c r="N6" s="18"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="42"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="43"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="22"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="10" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="20"/>
@@ -909,7 +909,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="44" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="20"/>
@@ -919,52 +919,52 @@
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="42"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="46"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="43"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="22"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="9" t="s">
         <v>6</v>
       </c>
@@ -973,56 +973,56 @@
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="15"/>
       <c r="I16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="15"/>
       <c r="I17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="15"/>
       <c r="I18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="15"/>
       <c r="I19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="3:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1042,23 +1042,23 @@
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,17 +1069,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.25" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1106,7 +1106,7 @@
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1115,7 +1115,7 @@
       <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1126,7 +1126,7 @@
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1135,7 +1135,7 @@
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1146,7 +1146,7 @@
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1155,7 +1155,7 @@
       <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1166,7 +1166,7 @@
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1175,7 +1175,7 @@
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="17" t="s">
         <v>34</v>
       </c>
@@ -1224,62 +1224,63 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
+      <c r="B19" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>